--- a/data/outputs/management_altmetric/76.xlsx
+++ b/data/outputs/management_altmetric/76.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE122"/>
+  <dimension ref="A1:CF122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1011,6 +1016,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1254,6 +1262,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1491,6 +1502,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1730,6 +1744,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1969,6 +1986,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2214,6 +2234,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2461,6 +2484,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2708,6 +2734,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2949,6 +2978,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3196,6 +3228,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3435,6 +3470,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3676,6 +3714,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3913,6 +3954,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4159,6 +4203,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -4399,6 +4446,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4642,6 +4692,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4889,6 +4942,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5128,6 +5184,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5383,6 +5442,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5636,6 +5698,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5881,6 +5946,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6120,6 +6188,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6361,6 +6432,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6598,6 +6672,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6837,6 +6914,9 @@
       <c r="CE26" t="n">
         <v>1</v>
       </c>
+      <c r="CF26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7082,6 +7162,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7327,6 +7410,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7570,6 +7656,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7815,6 +7904,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8052,6 +8144,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8301,6 +8396,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8550,6 +8648,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8791,6 +8892,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9038,6 +9142,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9291,6 +9398,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9537,6 +9647,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9775,6 +9888,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10020,6 +10136,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10261,6 +10380,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10516,6 +10638,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10763,6 +10888,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11018,6 +11146,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11269,6 +11400,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11508,6 +11642,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11753,6 +11890,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11998,6 +12138,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12243,6 +12386,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12498,6 +12644,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12745,6 +12894,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12992,6 +13144,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13237,6 +13392,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13491,6 +13649,9 @@
       </c>
       <c r="CE53" t="n">
         <v>0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -13721,6 +13882,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13972,6 +14136,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>8.449999999999999</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14231,6 +14398,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14486,6 +14656,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14735,6 +14908,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14984,6 +15160,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15225,6 +15404,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15470,6 +15652,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15716,6 +15901,9 @@
       </c>
       <c r="CE62" t="n">
         <v>1</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="63">
@@ -15958,6 +16146,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16208,6 +16399,9 @@
       </c>
       <c r="CE64" t="n">
         <v>0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
@@ -16446,6 +16640,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16683,6 +16880,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16932,6 +17132,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17187,6 +17390,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17429,6 +17635,9 @@
       </c>
       <c r="CE69" t="n">
         <v>0</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="70">
@@ -17671,6 +17880,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17910,6 +18122,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18155,6 +18370,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18396,6 +18614,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18639,6 +18860,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18882,6 +19106,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19131,6 +19358,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19378,6 +19608,9 @@
         <v>0</v>
       </c>
       <c r="CE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19617,6 +19850,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19876,6 +20112,9 @@
       <c r="CE79" t="n">
         <v>1</v>
       </c>
+      <c r="CF79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20121,6 +20360,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20366,6 +20608,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20621,6 +20866,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20863,6 +21111,9 @@
       </c>
       <c r="CE83" t="n">
         <v>0</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -21101,6 +21352,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21340,6 +21594,9 @@
       <c r="CE85" t="n">
         <v>1</v>
       </c>
+      <c r="CF85" t="n">
+        <v>64.914</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21583,6 +21840,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21826,6 +22086,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22069,6 +22332,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22315,6 +22581,9 @@
       </c>
       <c r="CE89" t="n">
         <v>0</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -22559,6 +22828,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22801,6 +23073,9 @@
       </c>
       <c r="CE91" t="n">
         <v>0</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
@@ -23039,6 +23314,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23276,6 +23554,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23517,6 +23798,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23770,6 +24054,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24015,6 +24302,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24254,6 +24544,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24495,6 +24788,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24742,6 +25038,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24989,6 +25288,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25236,6 +25538,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25478,6 +25783,9 @@
       </c>
       <c r="CE102" t="n">
         <v>0</v>
+      </c>
+      <c r="CF102" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -25718,6 +26026,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25955,6 +26266,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26198,6 +26512,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26445,6 +26762,9 @@
       <c r="CE106" t="n">
         <v>1</v>
       </c>
+      <c r="CF106" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26687,6 +27007,9 @@
       </c>
       <c r="CE107" t="n">
         <v>0</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>29.88</v>
       </c>
     </row>
     <row r="108">
@@ -26927,6 +27250,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27166,6 +27492,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>29.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27405,6 +27734,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27647,6 +27979,9 @@
       </c>
       <c r="CE111" t="n">
         <v>0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="112">
@@ -27885,6 +28220,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28124,6 +28462,9 @@
         <v>0</v>
       </c>
       <c r="CE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28363,6 +28704,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28602,6 +28946,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28845,6 +29192,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29086,6 +29436,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29332,6 +29685,9 @@
       </c>
       <c r="CE118" t="n">
         <v>0</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -29570,6 +29926,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29813,6 +30172,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30050,6 +30412,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30291,6 +30656,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
